--- a/Doc/September Budget.xlsx
+++ b/Doc/September Budget.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>veg</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Entertain</t>
+  </si>
+  <si>
+    <t>Hipercity  paste</t>
+  </si>
+  <si>
+    <t>1st sep 2016</t>
   </si>
 </sst>
 </file>
@@ -207,7 +213,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -238,7 +244,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +275,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -282,20 +294,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,24 +645,24 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="J6" s="4" t="s">
+      <c r="G6" s="7"/>
+      <c r="J6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -698,17 +711,11 @@
       <c r="D9">
         <v>585</v>
       </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>440</v>
-      </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9">
-        <v>4000</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -741,7 +748,7 @@
       <c r="D11">
         <v>380</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G11">
@@ -749,6 +756,12 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>178</v>
+      </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
@@ -756,19 +769,33 @@
         <v>840</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <f>(D3-SUM(D7:D20,G7:G20))</f>
-        <v>15968</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+        <v>15790</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
